--- a/Sorption Experiments/RaMgCl2Oxic/RaMgCl2Oxic.xlsx
+++ b/Sorption Experiments/RaMgCl2Oxic/RaMgCl2Oxic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -800,11 +800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189262336"/>
-        <c:axId val="189264688"/>
+        <c:axId val="195103200"/>
+        <c:axId val="195103984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189262336"/>
+        <c:axId val="195103200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,12 +833,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189264688"/>
+        <c:crossAx val="195103984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189264688"/>
+        <c:axId val="195103984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189262336"/>
+        <c:crossAx val="195103200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1104,11 +1104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189261944"/>
-        <c:axId val="189267040"/>
+        <c:axId val="195103592"/>
+        <c:axId val="195100456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189261944"/>
+        <c:axId val="195103592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,12 +1137,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189267040"/>
+        <c:crossAx val="195100456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189267040"/>
+        <c:axId val="195100456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189261944"/>
+        <c:crossAx val="195103592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
@@ -7037,7 +7037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M4"/>
     </sheetView>
   </sheetViews>
